--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Chad-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Chad-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.140201</v>
+        <v>0.3484863333333333</v>
       </c>
       <c r="H2">
-        <v>0.420603</v>
+        <v>1.045459</v>
       </c>
       <c r="I2">
-        <v>0.02759063995199814</v>
+        <v>0.08515845388213966</v>
       </c>
       <c r="J2">
-        <v>0.02759063995199814</v>
+        <v>0.08515845388213968</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>13.291033910051</v>
+        <v>61.6315844010031</v>
       </c>
       <c r="R2">
-        <v>119.619305190459</v>
+        <v>554.684259609028</v>
       </c>
       <c r="S2">
-        <v>0.004640645132153689</v>
+        <v>0.02273484352610676</v>
       </c>
       <c r="T2">
-        <v>0.004640645132153689</v>
+        <v>0.02273484352610677</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.140201</v>
+        <v>0.3484863333333333</v>
       </c>
       <c r="H3">
-        <v>0.420603</v>
+        <v>1.045459</v>
       </c>
       <c r="I3">
-        <v>0.02759063995199814</v>
+        <v>0.08515845388213966</v>
       </c>
       <c r="J3">
-        <v>0.02759063995199814</v>
+        <v>0.08515845388213968</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>20.41906468722933</v>
+        <v>50.75402445737688</v>
       </c>
       <c r="R3">
-        <v>183.771582185064</v>
+        <v>456.786220116392</v>
       </c>
       <c r="S3">
-        <v>0.007129440326855542</v>
+        <v>0.01872229662068981</v>
       </c>
       <c r="T3">
-        <v>0.007129440326855543</v>
+        <v>0.01872229662068981</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.140201</v>
+        <v>0.3484863333333333</v>
       </c>
       <c r="H4">
-        <v>0.420603</v>
+        <v>1.045459</v>
       </c>
       <c r="I4">
-        <v>0.02759063995199814</v>
+        <v>0.08515845388213966</v>
       </c>
       <c r="J4">
-        <v>0.02759063995199814</v>
+        <v>0.08515845388213968</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>10.20326386343733</v>
+        <v>29.28160365345111</v>
       </c>
       <c r="R4">
-        <v>91.829374770936</v>
+        <v>263.53443288106</v>
       </c>
       <c r="S4">
-        <v>0.003562531485540271</v>
+        <v>0.01080148569479015</v>
       </c>
       <c r="T4">
-        <v>0.003562531485540271</v>
+        <v>0.01080148569479016</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.140201</v>
+        <v>0.3484863333333333</v>
       </c>
       <c r="H5">
-        <v>0.420603</v>
+        <v>1.045459</v>
       </c>
       <c r="I5">
-        <v>0.02759063995199814</v>
+        <v>0.08515845388213966</v>
       </c>
       <c r="J5">
-        <v>0.02759063995199814</v>
+        <v>0.08515845388213968</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>16.24030784755833</v>
+        <v>29.59651762656589</v>
       </c>
       <c r="R5">
-        <v>146.162770628025</v>
+        <v>266.368658639093</v>
       </c>
       <c r="S5">
-        <v>0.005670402021956751</v>
+        <v>0.01091765210479782</v>
       </c>
       <c r="T5">
-        <v>0.005670402021956752</v>
+        <v>0.01091765210479782</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.140201</v>
+        <v>0.3484863333333333</v>
       </c>
       <c r="H6">
-        <v>0.420603</v>
+        <v>1.045459</v>
       </c>
       <c r="I6">
-        <v>0.02759063995199814</v>
+        <v>0.08515845388213966</v>
       </c>
       <c r="J6">
-        <v>0.02759063995199814</v>
+        <v>0.08515845388213968</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>8.157859604085999</v>
+        <v>22.29302747717655</v>
       </c>
       <c r="R6">
-        <v>73.42073643677399</v>
+        <v>200.637247294589</v>
       </c>
       <c r="S6">
-        <v>0.0028483661780342</v>
+        <v>0.008223518774386051</v>
       </c>
       <c r="T6">
-        <v>0.0028483661780342</v>
+        <v>0.008223518774386053</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.140201</v>
+        <v>0.3484863333333333</v>
       </c>
       <c r="H7">
-        <v>0.420603</v>
+        <v>1.045459</v>
       </c>
       <c r="I7">
-        <v>0.02759063995199814</v>
+        <v>0.08515845388213966</v>
       </c>
       <c r="J7">
-        <v>0.02759063995199814</v>
+        <v>0.08515845388213968</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>10.70940807343667</v>
+        <v>37.29816038151522</v>
       </c>
       <c r="R7">
-        <v>96.38467266093001</v>
+        <v>335.683443433637</v>
       </c>
       <c r="S7">
-        <v>0.003739254807457683</v>
+        <v>0.01375865716136906</v>
       </c>
       <c r="T7">
-        <v>0.003739254807457683</v>
+        <v>0.01375865716136906</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>8.348417</v>
       </c>
       <c r="I8">
-        <v>0.5476379569716346</v>
+        <v>0.6800250264078943</v>
       </c>
       <c r="J8">
-        <v>0.5476379569716345</v>
+        <v>0.6800250264078944</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>263.8095625619556</v>
+        <v>492.1533670380849</v>
       </c>
       <c r="R8">
-        <v>2374.286063057601</v>
+        <v>4429.380303342764</v>
       </c>
       <c r="S8">
-        <v>0.09211070941538482</v>
+        <v>0.1815470087164486</v>
       </c>
       <c r="T8">
-        <v>0.09211070941538482</v>
+        <v>0.1815470087164487</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>8.348417</v>
       </c>
       <c r="I9">
-        <v>0.5476379569716346</v>
+        <v>0.6800250264078943</v>
       </c>
       <c r="J9">
-        <v>0.5476379569716345</v>
+        <v>0.6800250264078944</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>405.291609329855</v>
@@ -1013,10 +1013,10 @@
         <v>3647.624483968696</v>
       </c>
       <c r="S9">
-        <v>0.1415100244772537</v>
+        <v>0.1495051832613324</v>
       </c>
       <c r="T9">
-        <v>0.1415100244772537</v>
+        <v>0.1495051832613325</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>8.348417</v>
       </c>
       <c r="I10">
-        <v>0.5476379569716346</v>
+        <v>0.6800250264078943</v>
       </c>
       <c r="J10">
-        <v>0.5476379569716345</v>
+        <v>0.6800250264078944</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>202.5213835683671</v>
+        <v>233.8255615263089</v>
       </c>
       <c r="R10">
-        <v>1822.692452115304</v>
+        <v>2104.43005373678</v>
       </c>
       <c r="S10">
-        <v>0.07071156985784613</v>
+        <v>0.08625427376840501</v>
       </c>
       <c r="T10">
-        <v>0.07071156985784612</v>
+        <v>0.08625427376840503</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>8.348417</v>
       </c>
       <c r="I11">
-        <v>0.5476379569716346</v>
+        <v>0.6800250264078943</v>
       </c>
       <c r="J11">
-        <v>0.5476379569716345</v>
+        <v>0.6800250264078944</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>322.3487757333861</v>
+        <v>236.3402781882621</v>
       </c>
       <c r="R11">
-        <v>2901.138981600475</v>
+        <v>2127.062503694359</v>
       </c>
       <c r="S11">
-        <v>0.1125500308769508</v>
+        <v>0.08718190998573826</v>
       </c>
       <c r="T11">
-        <v>0.1125500308769507</v>
+        <v>0.08718190998573827</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>8.348417</v>
       </c>
       <c r="I12">
-        <v>0.5476379569716346</v>
+        <v>0.6800250264078943</v>
       </c>
       <c r="J12">
-        <v>0.5476379569716345</v>
+        <v>0.6800250264078944</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>161.9227960864873</v>
+        <v>178.0189271620674</v>
       </c>
       <c r="R12">
-        <v>1457.305164778386</v>
+        <v>1602.170344458607</v>
       </c>
       <c r="S12">
-        <v>0.05653632670933337</v>
+        <v>0.06566815526568108</v>
       </c>
       <c r="T12">
-        <v>0.05653632670933336</v>
+        <v>0.06566815526568109</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>8.348417</v>
       </c>
       <c r="I13">
-        <v>0.5476379569716346</v>
+        <v>0.6800250264078943</v>
       </c>
       <c r="J13">
-        <v>0.5476379569716345</v>
+        <v>0.6800250264078944</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>212.5676812105856</v>
+        <v>297.8410403447368</v>
       </c>
       <c r="R13">
-        <v>1913.10913089527</v>
+        <v>2680.569363102631</v>
       </c>
       <c r="S13">
-        <v>0.07421929563486576</v>
+        <v>0.1098684954102889</v>
       </c>
       <c r="T13">
-        <v>0.07421929563486576</v>
+        <v>0.1098684954102889</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.7927136666666668</v>
+        <v>0.5631773333333333</v>
       </c>
       <c r="H14">
-        <v>2.378141</v>
+        <v>1.689532</v>
       </c>
       <c r="I14">
-        <v>0.1560008656288348</v>
+        <v>0.137621784215736</v>
       </c>
       <c r="J14">
-        <v>0.1560008656288348</v>
+        <v>0.1376217842157361</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>75.14913748566367</v>
+        <v>99.60078210259377</v>
       </c>
       <c r="R14">
-        <v>676.342237370973</v>
+        <v>896.407038923344</v>
       </c>
       <c r="S14">
-        <v>0.0262387773154854</v>
+        <v>0.03674103494479478</v>
       </c>
       <c r="T14">
-        <v>0.0262387773154854</v>
+        <v>0.0367410349447948</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.7927136666666668</v>
+        <v>0.5631773333333333</v>
       </c>
       <c r="H15">
-        <v>2.378141</v>
+        <v>1.689532</v>
       </c>
       <c r="I15">
-        <v>0.1560008656288348</v>
+        <v>0.137621784215736</v>
       </c>
       <c r="J15">
-        <v>0.1560008656288348</v>
+        <v>0.1376217842157361</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>115.4518986178231</v>
+        <v>82.02191424964622</v>
       </c>
       <c r="R15">
-        <v>1039.067087560408</v>
+        <v>738.1972282468159</v>
       </c>
       <c r="S15">
-        <v>0.04031073089908671</v>
+        <v>0.0302564894980552</v>
       </c>
       <c r="T15">
-        <v>0.04031073089908671</v>
+        <v>0.03025648949805521</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.7927136666666668</v>
+        <v>0.5631773333333333</v>
       </c>
       <c r="H16">
-        <v>2.378141</v>
+        <v>1.689532</v>
       </c>
       <c r="I16">
-        <v>0.1560008656288348</v>
+        <v>0.137621784215736</v>
       </c>
       <c r="J16">
-        <v>0.1560008656288348</v>
+        <v>0.1376217842157361</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>57.69050655239911</v>
+        <v>47.32103926009778</v>
       </c>
       <c r="R16">
-        <v>519.2145589715921</v>
+        <v>425.88935334088</v>
       </c>
       <c r="S16">
-        <v>0.02014299039606048</v>
+        <v>0.01745592675455489</v>
       </c>
       <c r="T16">
-        <v>0.02014299039606048</v>
+        <v>0.01745592675455489</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.7927136666666668</v>
+        <v>0.5631773333333333</v>
       </c>
       <c r="H17">
-        <v>2.378141</v>
+        <v>1.689532</v>
       </c>
       <c r="I17">
-        <v>0.1560008656288348</v>
+        <v>0.137621784215736</v>
       </c>
       <c r="J17">
-        <v>0.1560008656288348</v>
+        <v>0.1376217842157361</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>91.82469441468612</v>
+        <v>47.82996140321823</v>
       </c>
       <c r="R17">
-        <v>826.4222497321751</v>
+        <v>430.4696526289641</v>
       </c>
       <c r="S17">
-        <v>0.03206114919508005</v>
+        <v>0.01764365947963839</v>
       </c>
       <c r="T17">
-        <v>0.03206114919508005</v>
+        <v>0.0176436594796384</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>27</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.7927136666666668</v>
+        <v>0.5631773333333333</v>
       </c>
       <c r="H18">
-        <v>2.378141</v>
+        <v>1.689532</v>
       </c>
       <c r="I18">
-        <v>0.1560008656288348</v>
+        <v>0.137621784215736</v>
       </c>
       <c r="J18">
-        <v>0.1560008656288348</v>
+        <v>0.1376217842157361</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>46.12553975297534</v>
+        <v>36.02703051919688</v>
       </c>
       <c r="R18">
-        <v>415.129857776778</v>
+        <v>324.243274672772</v>
       </c>
       <c r="S18">
-        <v>0.01610501206837904</v>
+        <v>0.01328975896895623</v>
       </c>
       <c r="T18">
-        <v>0.01610501206837904</v>
+        <v>0.01328975896895624</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>24</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.7927136666666668</v>
+        <v>0.5631773333333333</v>
       </c>
       <c r="H19">
-        <v>2.378141</v>
+        <v>1.689532</v>
       </c>
       <c r="I19">
-        <v>0.1560008656288348</v>
+        <v>0.137621784215736</v>
       </c>
       <c r="J19">
-        <v>0.1560008656288348</v>
+        <v>0.1376217842157361</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>60.55230805574557</v>
+        <v>60.27633365411955</v>
       </c>
       <c r="R19">
-        <v>544.9707725017101</v>
+        <v>542.4870028870761</v>
       </c>
       <c r="S19">
-        <v>0.02114220575474313</v>
+        <v>0.02223491456973654</v>
       </c>
       <c r="T19">
-        <v>0.02114220575474313</v>
+        <v>0.02223491456973654</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.1565033333333334</v>
+        <v>0.2482816666666667</v>
       </c>
       <c r="H20">
-        <v>0.46951</v>
+        <v>0.744845</v>
       </c>
       <c r="I20">
-        <v>0.03079883254247509</v>
+        <v>0.06067177056378329</v>
       </c>
       <c r="J20">
-        <v>0.03079883254247508</v>
+        <v>0.0606717705637833</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>14.83649268100333</v>
+        <v>43.90987832441555</v>
       </c>
       <c r="R20">
-        <v>133.52843412903</v>
+        <v>395.18890491974</v>
       </c>
       <c r="S20">
-        <v>0.005180251438999434</v>
+        <v>0.01619760748743183</v>
       </c>
       <c r="T20">
-        <v>0.005180251438999433</v>
+        <v>0.01619760748743183</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.1565033333333334</v>
+        <v>0.2482816666666667</v>
       </c>
       <c r="H21">
-        <v>0.46951</v>
+        <v>0.744845</v>
       </c>
       <c r="I21">
-        <v>0.03079883254247509</v>
+        <v>0.06067177056378329</v>
       </c>
       <c r="J21">
-        <v>0.03079883254247508</v>
+        <v>0.0606717705637833</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>22.79335872854222</v>
+        <v>36.16008025848444</v>
       </c>
       <c r="R21">
-        <v>205.14022855688</v>
+        <v>325.44072232636</v>
       </c>
       <c r="S21">
-        <v>0.007958439497250247</v>
+        <v>0.01333883875545354</v>
       </c>
       <c r="T21">
-        <v>0.007958439497250247</v>
+        <v>0.01333883875545354</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.1565033333333334</v>
+        <v>0.2482816666666667</v>
       </c>
       <c r="H22">
-        <v>0.46951</v>
+        <v>0.744845</v>
       </c>
       <c r="I22">
-        <v>0.03079883254247509</v>
+        <v>0.06067177056378329</v>
       </c>
       <c r="J22">
-        <v>0.03079883254247508</v>
+        <v>0.0606717705637833</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>11.38968199590222</v>
+        <v>20.86189518025556</v>
       </c>
       <c r="R22">
-        <v>102.50713796312</v>
+        <v>187.7570566223</v>
       </c>
       <c r="S22">
-        <v>0.003976776575003063</v>
+        <v>0.007695598404467294</v>
       </c>
       <c r="T22">
-        <v>0.003976776575003062</v>
+        <v>0.007695598404467295</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.1565033333333334</v>
+        <v>0.2482816666666667</v>
       </c>
       <c r="H23">
-        <v>0.46951</v>
+        <v>0.744845</v>
       </c>
       <c r="I23">
-        <v>0.03079883254247509</v>
+        <v>0.06067177056378329</v>
       </c>
       <c r="J23">
-        <v>0.03079883254247508</v>
+        <v>0.0606717705637833</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>18.12870316547222</v>
+        <v>21.08625797047945</v>
       </c>
       <c r="R23">
-        <v>163.15832848925</v>
+        <v>189.776321734315</v>
       </c>
       <c r="S23">
-        <v>0.006329746704918688</v>
+        <v>0.00777836202280351</v>
       </c>
       <c r="T23">
-        <v>0.006329746704918687</v>
+        <v>0.007778362022803512</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>27</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.1565033333333334</v>
+        <v>0.2482816666666667</v>
       </c>
       <c r="H24">
-        <v>0.46951</v>
+        <v>0.744845</v>
       </c>
       <c r="I24">
-        <v>0.03079883254247509</v>
+        <v>0.06067177056378329</v>
       </c>
       <c r="J24">
-        <v>0.03079883254247508</v>
+        <v>0.0606717705637833</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>9.106441615286666</v>
+        <v>15.88283237433278</v>
       </c>
       <c r="R24">
-        <v>81.95797453758</v>
+        <v>142.945491368995</v>
       </c>
       <c r="S24">
-        <v>0.003179569342702828</v>
+        <v>0.005858906797404373</v>
       </c>
       <c r="T24">
-        <v>0.003179569342702828</v>
+        <v>0.005858906797404374</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.1565033333333334</v>
+        <v>0.2482816666666667</v>
       </c>
       <c r="H25">
-        <v>0.46951</v>
+        <v>0.744845</v>
       </c>
       <c r="I25">
-        <v>0.03079883254247509</v>
+        <v>0.06067177056378329</v>
       </c>
       <c r="J25">
-        <v>0.03079883254247508</v>
+        <v>0.0606717705637833</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>11.95467979201111</v>
+        <v>26.57335033642611</v>
       </c>
       <c r="R25">
-        <v>107.5921181281</v>
+        <v>239.160153027835</v>
       </c>
       <c r="S25">
-        <v>0.004174048983600824</v>
+        <v>0.009802457096222749</v>
       </c>
       <c r="T25">
-        <v>0.004174048983600823</v>
+        <v>0.009802457096222751</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>1.209246</v>
+        <v>0.1494596666666667</v>
       </c>
       <c r="H26">
-        <v>3.627738</v>
+        <v>0.448379</v>
       </c>
       <c r="I26">
-        <v>0.2379717049050574</v>
+        <v>0.03652296493044672</v>
       </c>
       <c r="J26">
-        <v>0.2379717049050573</v>
+        <v>0.03652296493044672</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>114.636340622346</v>
+        <v>26.43270389574089</v>
       </c>
       <c r="R26">
-        <v>1031.727065601114</v>
+        <v>237.894335061668</v>
       </c>
       <c r="S26">
-        <v>0.04002597387662228</v>
+        <v>0.009750575015751193</v>
       </c>
       <c r="T26">
-        <v>0.04002597387662228</v>
+        <v>0.009750575015751193</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>1.209246</v>
+        <v>0.1494596666666667</v>
       </c>
       <c r="H27">
-        <v>3.627738</v>
+        <v>0.448379</v>
       </c>
       <c r="I27">
-        <v>0.2379717049050574</v>
+        <v>0.03652296493044672</v>
       </c>
       <c r="J27">
-        <v>0.2379717049050573</v>
+        <v>0.03652296493044672</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>176.116235239216</v>
+        <v>21.76750951703911</v>
       </c>
       <c r="R27">
-        <v>1585.046117152944</v>
+        <v>195.907585653352</v>
       </c>
       <c r="S27">
-        <v>0.06149205210725143</v>
+        <v>0.008029664134593778</v>
       </c>
       <c r="T27">
-        <v>0.06149205210725143</v>
+        <v>0.008029664134593778</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>1.209246</v>
+        <v>0.1494596666666667</v>
       </c>
       <c r="H28">
-        <v>3.627738</v>
+        <v>0.448379</v>
       </c>
       <c r="I28">
-        <v>0.2379717049050574</v>
+        <v>0.03652296493044672</v>
       </c>
       <c r="J28">
-        <v>0.2379717049050573</v>
+        <v>0.03652296493044672</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>88.00405142478401</v>
+        <v>12.55836543042889</v>
       </c>
       <c r="R28">
-        <v>792.036462823056</v>
+        <v>113.02528887386</v>
       </c>
       <c r="S28">
-        <v>0.0307271485136599</v>
+        <v>0.004632567469737517</v>
       </c>
       <c r="T28">
-        <v>0.03072714851365989</v>
+        <v>0.004632567469737517</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>1.209246</v>
+        <v>0.1494596666666667</v>
       </c>
       <c r="H29">
-        <v>3.627738</v>
+        <v>0.448379</v>
       </c>
       <c r="I29">
-        <v>0.2379717049050574</v>
+        <v>0.03652296493044672</v>
       </c>
       <c r="J29">
-        <v>0.2379717049050573</v>
+        <v>0.03652296493044672</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>140.07408865435</v>
+        <v>12.69342650154811</v>
       </c>
       <c r="R29">
-        <v>1260.66679788915</v>
+        <v>114.240838513933</v>
       </c>
       <c r="S29">
-        <v>0.04890771794383147</v>
+        <v>0.004682389202347623</v>
       </c>
       <c r="T29">
-        <v>0.04890771794383146</v>
+        <v>0.004682389202347623</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>1.209246</v>
+        <v>0.1494596666666667</v>
       </c>
       <c r="H30">
-        <v>3.627738</v>
+        <v>0.448379</v>
       </c>
       <c r="I30">
-        <v>0.2379717049050574</v>
+        <v>0.03652296493044672</v>
       </c>
       <c r="J30">
-        <v>0.2379717049050573</v>
+        <v>0.03652296493044672</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>70.362259147956</v>
+        <v>9.561087873545445</v>
       </c>
       <c r="R30">
-        <v>633.260332331604</v>
+        <v>86.049790861909</v>
       </c>
       <c r="S30">
-        <v>0.02456740969981059</v>
+        <v>0.003526922743541778</v>
       </c>
       <c r="T30">
-        <v>0.02456740969981059</v>
+        <v>0.003526922743541778</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>1.209246</v>
+        <v>0.1494596666666667</v>
       </c>
       <c r="H31">
-        <v>3.627738</v>
+        <v>0.448379</v>
       </c>
       <c r="I31">
-        <v>0.2379717049050574</v>
+        <v>0.03652296493044672</v>
       </c>
       <c r="J31">
-        <v>0.2379717049050573</v>
+        <v>0.03652296493044672</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>92.36958991142001</v>
+        <v>15.99652578791078</v>
       </c>
       <c r="R31">
-        <v>831.3263092027801</v>
+        <v>143.968732091197</v>
       </c>
       <c r="S31">
-        <v>0.03225140276388167</v>
+        <v>0.005900846364474837</v>
       </c>
       <c r="T31">
-        <v>0.03225140276388167</v>
+        <v>0.005900846364474837</v>
       </c>
     </row>
   </sheetData>
